--- a/ConfusionSummary.xlsx
+++ b/ConfusionSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Documents\DataScience\MachineLearning_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A91DD1-5A87-49CB-9FBE-190D8F6B71C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921DD7EC-517F-420A-B163-A26EC366D6BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VG99confusion" sheetId="1" r:id="rId1"/>
@@ -799,67 +799,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dog</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Recognition Accuracy</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1038,7 +978,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1139,7 +1079,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1752,10 +1692,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2082,14 +2022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6476,11 +6419,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10544,6 +10493,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10551,14 +10501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECC22AB-819C-43F1-A1AB-41F54A49F653}">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -15574,8 +15527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
